--- a/DatosExcel/Reservaciones.xlsx
+++ b/DatosExcel/Reservaciones.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Desktop\chefServer\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D816704-FE9D-4E8B-8515-D36AE6BD5028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D25EA7-5BB2-43FA-9DB1-628989D79745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="5985" windowWidth="15375" windowHeight="7965" xr2:uid="{1F81E5BC-8FAA-41D5-9CBE-058FBC33DC25}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{1F81E5BC-8FAA-41D5-9CBE-058FBC33DC25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,34 +69,12 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>18/06/2005</t>
-  </si>
-  <si>
-    <t>02:20</t>
-  </si>
-  <si>
-    <t>Jairo Torres</t>
-  </si>
-  <si>
-    <t>gerente@gerencia.com</t>
-  </si>
-  <si>
-    <t>gerente</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>mesa para 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4D51F-EEC3-411F-9D19-6BA05680D41B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L4"/>
@@ -456,9 +434,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -499,36 +477,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.103102868E9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DatosExcel/Reservaciones.xlsx
+++ b/DatosExcel/Reservaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Desktop\chefServer\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D25EA7-5BB2-43FA-9DB1-628989D79745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A34C50-CA9B-4640-A230-D98CA01DDF83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{1F81E5BC-8FAA-41D5-9CBE-058FBC33DC25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F81E5BC-8FAA-41D5-9CBE-058FBC33DC25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -429,14 +429,14 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">

--- a/DatosExcel/Reservaciones.xlsx
+++ b/DatosExcel/Reservaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Desktop\chefServer\DatosExcel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,12 +69,34 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Estrellas</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Van bien2!</t>
+  </si>
+  <si>
+    <t>jitano</t>
+  </si>
+  <si>
+    <t>pepito@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4D51F-EEC3-411F-9D19-6BA05680D41B}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -434,47 +456,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23920.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
